--- a/data/Em3/Ratios.xlsx
+++ b/data/Em3/Ratios.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+  <si>
+    <t>Lab. #</t>
+  </si>
   <si>
     <t>dU234</t>
   </si>
@@ -89,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,35 +415,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="19.7109375" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,66 +505,72 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
+    <row r="2" spans="1:21" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>8166</v>
+      </c>
+      <c r="B2" s="1">
         <v>465.4398929600332</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>0.001741096101786735</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>0.009774971528730211</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>1.030881597333003</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="1">
         <v>0.007153779587876869</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="1">
         <v>0.02209471799659856</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="1">
         <v>3.125648482395934</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="1">
         <v>0.01312080514307315</v>
       </c>
-      <c r="I2">
+      <c r="J2" s="1">
         <v>3.546559926803768</v>
       </c>
-      <c r="J2">
+      <c r="K2" s="1">
         <v>1.081724026719631</v>
       </c>
-      <c r="K2">
+      <c r="L2" s="1">
         <v>0.01110677530290803</v>
       </c>
-      <c r="L2">
+      <c r="M2" s="1">
         <v>0.1188104752812409</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="1">
         <v>8.055334167077425E-05</v>
       </c>
-      <c r="N2">
+      <c r="O2" s="1">
         <v>0.1188104752812417</v>
       </c>
-      <c r="O2">
+      <c r="P2" s="1">
         <v>0.5832387890770165</v>
       </c>
-      <c r="P2">
+      <c r="Q2" s="1">
         <v>0.3212819427354254</v>
       </c>
-      <c r="Q2">
+      <c r="R2" s="1">
         <v>0.003553620086736945</v>
       </c>
-      <c r="R2">
+      <c r="S2" s="1">
         <v>0.342231567409863</v>
       </c>
-      <c r="S2">
+      <c r="T2" s="1">
         <v>0.002070425876032709</v>
       </c>
-      <c r="T2">
+      <c r="U2" s="1">
         <v>0.2825407294232345</v>
       </c>
     </row>

--- a/data/Em3/Ratios.xlsx
+++ b/data/Em3/Ratios.xlsx
@@ -428,20 +428,20 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" customWidth="1"/>
     <col min="14" max="14" width="22.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="19.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="22.7109375" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" customWidth="1"/>
     <col min="20" max="20" width="21.7109375" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -532,16 +532,16 @@
         <v>0.02209471799659856</v>
       </c>
       <c r="H2" s="1">
-        <v>3.125648482395934</v>
+        <v>3.125603062778264</v>
       </c>
       <c r="I2" s="1">
-        <v>0.01312080514307315</v>
+        <v>0.01283955242086306</v>
       </c>
       <c r="J2" s="1">
-        <v>3.546559926803768</v>
+        <v>3.54551924390971</v>
       </c>
       <c r="K2" s="1">
-        <v>1.081724026719631</v>
+        <v>1.069781537870688</v>
       </c>
       <c r="L2" s="1">
         <v>0.01110677530290803</v>
@@ -556,10 +556,10 @@
         <v>0.1188104752812417</v>
       </c>
       <c r="P2" s="1">
-        <v>0.5832387890770165</v>
+        <v>0.5832367987382572</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.3212819427354254</v>
+        <v>0.3212830336741677</v>
       </c>
       <c r="R2" s="1">
         <v>0.003553620086736945</v>
@@ -568,10 +568,10 @@
         <v>0.342231567409863</v>
       </c>
       <c r="T2" s="1">
-        <v>0.002070425876032709</v>
+        <v>0.002070408906527906</v>
       </c>
       <c r="U2" s="1">
-        <v>0.2825407294232345</v>
+        <v>0.2893874872767901</v>
       </c>
     </row>
   </sheetData>

--- a/data/Em3/Ratios.xlsx
+++ b/data/Em3/Ratios.xlsx
@@ -83,13 +83,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -120,7 +126,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
